--- a/aplicacao/mudanca.xlsx
+++ b/aplicacao/mudanca.xlsx
@@ -15,19 +15,370 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$45</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="119">
   <si>
     <t>Serial</t>
   </si>
   <si>
     <t>Estoque</t>
+  </si>
+  <si>
+    <t>6P149586</t>
+  </si>
+  <si>
+    <t>BOLT_3G</t>
+  </si>
+  <si>
+    <t>527-270-502</t>
+  </si>
+  <si>
+    <t>527-624-704</t>
+  </si>
+  <si>
+    <t>527-270-387</t>
+  </si>
+  <si>
+    <t>527-270-397</t>
+  </si>
+  <si>
+    <t>527-624-668</t>
+  </si>
+  <si>
+    <t>541-362-231</t>
+  </si>
+  <si>
+    <t>541-361-270</t>
+  </si>
+  <si>
+    <t>527-625-074</t>
+  </si>
+  <si>
+    <t>525-891-311</t>
+  </si>
+  <si>
+    <t>525-891-319</t>
+  </si>
+  <si>
+    <t>541-557-549</t>
+  </si>
+  <si>
+    <t>527-624-491</t>
+  </si>
+  <si>
+    <t>525-890-991</t>
+  </si>
+  <si>
+    <t>527-601-135</t>
+  </si>
+  <si>
+    <t>525-890-934</t>
+  </si>
+  <si>
+    <t>526-622-800</t>
+  </si>
+  <si>
+    <t>526-622-525</t>
+  </si>
+  <si>
+    <t>525-890-541</t>
+  </si>
+  <si>
+    <t>526-518-409</t>
+  </si>
+  <si>
+    <t>541-361-655</t>
+  </si>
+  <si>
+    <t>526-622-360</t>
+  </si>
+  <si>
+    <t>541-362-100</t>
+  </si>
+  <si>
+    <t>525-891-166</t>
+  </si>
+  <si>
+    <t>541-361-446</t>
+  </si>
+  <si>
+    <t>526-622-190</t>
+  </si>
+  <si>
+    <t>541-544-737</t>
+  </si>
+  <si>
+    <t>541-362-098</t>
+  </si>
+  <si>
+    <t>525-890-324</t>
+  </si>
+  <si>
+    <t>527-625-114</t>
+  </si>
+  <si>
+    <t>541-374-012</t>
+  </si>
+  <si>
+    <t>527-600-815</t>
+  </si>
+  <si>
+    <t>6P149273</t>
+  </si>
+  <si>
+    <t>17144CT32275443</t>
+  </si>
+  <si>
+    <t>14198CT31684155</t>
+  </si>
+  <si>
+    <t>17031CT32231650</t>
+  </si>
+  <si>
+    <t>541-544-988</t>
+  </si>
+  <si>
+    <t>BOLT_6C</t>
+  </si>
+  <si>
+    <t>541-361-848</t>
+  </si>
+  <si>
+    <t>6P149236</t>
+  </si>
+  <si>
+    <t>BOLT_4A</t>
+  </si>
+  <si>
+    <t>527-624-187</t>
+  </si>
+  <si>
+    <t>541-361-809</t>
+  </si>
+  <si>
+    <t>541-362-107</t>
+  </si>
+  <si>
+    <t>541-545-017</t>
+  </si>
+  <si>
+    <t>541-544-999</t>
+  </si>
+  <si>
+    <t>541-361-261</t>
+  </si>
+  <si>
+    <t>527-601-220</t>
+  </si>
+  <si>
+    <t>541-360-866</t>
+  </si>
+  <si>
+    <t>527-270-382</t>
+  </si>
+  <si>
+    <t>527-624-186</t>
+  </si>
+  <si>
+    <t>541-557-290</t>
+  </si>
+  <si>
+    <t>6P149777</t>
+  </si>
+  <si>
+    <t>527-624-137</t>
+  </si>
+  <si>
+    <t>541-362-150</t>
+  </si>
+  <si>
+    <t>541-361-140</t>
+  </si>
+  <si>
+    <t>541-361-907</t>
+  </si>
+  <si>
+    <t>541-544-895</t>
+  </si>
+  <si>
+    <t>6P149786</t>
+  </si>
+  <si>
+    <t>541-360-865</t>
+  </si>
+  <si>
+    <t>6P150344</t>
+  </si>
+  <si>
+    <t>541-374-116</t>
+  </si>
+  <si>
+    <t>526-622-502</t>
+  </si>
+  <si>
+    <t>6P150879</t>
+  </si>
+  <si>
+    <t>525-890-939</t>
+  </si>
+  <si>
+    <t>6P150762</t>
+  </si>
+  <si>
+    <t>525-891-130</t>
+  </si>
+  <si>
+    <t>541-374-148</t>
+  </si>
+  <si>
+    <t>527-624-769</t>
+  </si>
+  <si>
+    <t>BOLT_1G</t>
+  </si>
+  <si>
+    <t>6P149168</t>
+  </si>
+  <si>
+    <t>541-361-239</t>
+  </si>
+  <si>
+    <t>527-600-568</t>
+  </si>
+  <si>
+    <t>541-361-013</t>
+  </si>
+  <si>
+    <t>6P150274</t>
+  </si>
+  <si>
+    <t>6P149326</t>
+  </si>
+  <si>
+    <t>6P149105</t>
+  </si>
+  <si>
+    <t>527-273-001</t>
+  </si>
+  <si>
+    <t>541-557-348</t>
+  </si>
+  <si>
+    <t>541-374-172</t>
+  </si>
+  <si>
+    <t>541-374-266</t>
+  </si>
+  <si>
+    <t>527-624-969</t>
+  </si>
+  <si>
+    <t>541-374-109</t>
+  </si>
+  <si>
+    <t>541-361-052</t>
+  </si>
+  <si>
+    <t>541-557-567</t>
+  </si>
+  <si>
+    <t>541-361-589</t>
+  </si>
+  <si>
+    <t>541-361-608</t>
+  </si>
+  <si>
+    <t>6P149931</t>
+  </si>
+  <si>
+    <t>541-557-634</t>
+  </si>
+  <si>
+    <t>6P149652</t>
+  </si>
+  <si>
+    <t>6P150939</t>
+  </si>
+  <si>
+    <t>6P150457</t>
+  </si>
+  <si>
+    <t>541-362-118</t>
+  </si>
+  <si>
+    <t>541-361-576</t>
+  </si>
+  <si>
+    <t>527-270-441</t>
+  </si>
+  <si>
+    <t>541-557-616</t>
+  </si>
+  <si>
+    <t>541-361-976</t>
+  </si>
+  <si>
+    <t>6P149221</t>
+  </si>
+  <si>
+    <t>527-601-176</t>
+  </si>
+  <si>
+    <t>527-600-775</t>
+  </si>
+  <si>
+    <t>6P149793</t>
+  </si>
+  <si>
+    <t>541-361-182</t>
+  </si>
+  <si>
+    <t>6P149961</t>
+  </si>
+  <si>
+    <t>525-890-631</t>
+  </si>
+  <si>
+    <t>541-557-406</t>
+  </si>
+  <si>
+    <t>541-544-554</t>
+  </si>
+  <si>
+    <t>541-361-292</t>
+  </si>
+  <si>
+    <t>541-360-985</t>
+  </si>
+  <si>
+    <t>527-600-652</t>
+  </si>
+  <si>
+    <t>541-557-670</t>
+  </si>
+  <si>
+    <t>541-557-500</t>
+  </si>
+  <si>
+    <t>527-625-024</t>
+  </si>
+  <si>
+    <t>6P149519</t>
+  </si>
+  <si>
+    <t>527-624-925</t>
+  </si>
+  <si>
+    <t>541-544-943</t>
+  </si>
+  <si>
+    <t>527-624-935</t>
   </si>
 </sst>
 </file>
@@ -59,7 +410,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -67,15 +418,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -356,27 +752,1067 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B101"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="0" hidden="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="3">
+        <v>1470586055</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="3">
+        <v>1470586381</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="3">
+        <v>1470586780</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="3">
+        <v>1470586123</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="4">
+        <v>1470586698</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="4"/>
+      <c r="B120" s="2"/>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="4"/>
+      <c r="B121" s="2"/>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="4"/>
+      <c r="B122" s="2"/>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="4"/>
+      <c r="B123" s="2"/>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="4"/>
+      <c r="B124" s="2"/>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="4"/>
+      <c r="B125" s="2"/>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="4"/>
+      <c r="B126" s="2"/>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="4"/>
+      <c r="B127" s="2"/>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="4"/>
+      <c r="B128" s="2"/>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="4"/>
+      <c r="B129" s="2"/>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="4"/>
+      <c r="B130" s="2"/>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="4"/>
+      <c r="B131" s="2"/>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="4"/>
+      <c r="B132" s="2"/>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="4"/>
+      <c r="B133" s="2"/>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="4"/>
+      <c r="B134" s="2"/>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="4"/>
+      <c r="B135" s="2"/>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="4"/>
+      <c r="B136" s="2"/>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="4"/>
+      <c r="B137" s="2"/>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="4"/>
+      <c r="B138" s="2"/>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="4"/>
+      <c r="B139" s="2"/>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="4"/>
+      <c r="B140" s="2"/>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="4"/>
+      <c r="B141" s="2"/>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="4"/>
+      <c r="B142" s="2"/>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="4"/>
+      <c r="B143" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/aplicacao/mudanca.xlsx
+++ b/aplicacao/mudanca.xlsx
@@ -408,7 +408,7 @@
   <dimension ref="A1:D143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="A2:B11"/>
+      <selection activeCell="B2" sqref="B2:B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>

--- a/aplicacao/mudanca.xlsx
+++ b/aplicacao/mudanca.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="164011"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cleitonfonseca\Desktop\automatizacao_de_processo_com_python\aplicacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cleitonfonseca\Desktop\automatizacao_de_processo_com_python-main\aplicacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,18 +22,117 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
   <si>
     <t>Serial</t>
   </si>
   <si>
     <t>Estoque</t>
+  </si>
+  <si>
+    <t>527-601-178</t>
+  </si>
+  <si>
+    <t>BOLT_5C</t>
+  </si>
+  <si>
+    <t>526-622-393</t>
+  </si>
+  <si>
+    <t>541-361-452</t>
+  </si>
+  <si>
+    <t>541-544-749</t>
+  </si>
+  <si>
+    <t>541-557-530</t>
+  </si>
+  <si>
+    <t>527-624-904</t>
+  </si>
+  <si>
+    <t>527-624-804</t>
+  </si>
+  <si>
+    <t>541-374-261</t>
+  </si>
+  <si>
+    <t>541-374-214</t>
+  </si>
+  <si>
+    <t>527-601-231</t>
+  </si>
+  <si>
+    <t>541-544-989</t>
+  </si>
+  <si>
+    <t>541-361-754</t>
+  </si>
+  <si>
+    <t>541-362-228</t>
+  </si>
+  <si>
+    <t>526-622-535</t>
+  </si>
+  <si>
+    <t>541-362-315</t>
+  </si>
+  <si>
+    <t>541-374-240</t>
+  </si>
+  <si>
+    <t>6P149798</t>
+  </si>
+  <si>
+    <t>BOLT_5E</t>
+  </si>
+  <si>
+    <t>6P150747</t>
+  </si>
+  <si>
+    <t>6P764320</t>
+  </si>
+  <si>
+    <t>6P149426</t>
+  </si>
+  <si>
+    <t>6P149180</t>
+  </si>
+  <si>
+    <t>6P150460</t>
+  </si>
+  <si>
+    <t>6P764279</t>
+  </si>
+  <si>
+    <t>6P150437</t>
+  </si>
+  <si>
+    <t>6P149515</t>
+  </si>
+  <si>
+    <t>6P764280</t>
+  </si>
+  <si>
+    <t>6P150805</t>
+  </si>
+  <si>
+    <t>6P764425</t>
+  </si>
+  <si>
+    <t>6P764512</t>
+  </si>
+  <si>
+    <t>6P151065</t>
+  </si>
+  <si>
+    <t>BOLT_7D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -99,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -118,13 +217,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,7 +512,7 @@
   <dimension ref="A1:D143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B80"/>
+      <selection activeCell="A2" sqref="A2:B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -428,144 +532,284 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
+      <c r="A2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
+      <c r="A3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
+      <c r="A6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
+      <c r="A7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
+      <c r="A8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
+      <c r="A9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
+      <c r="A10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
+      <c r="A11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="4"/>
+      <c r="A15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="4"/>
+      <c r="A17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="4"/>
+      <c r="A18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="4"/>
+      <c r="A19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="4"/>
+      <c r="A20" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="4"/>
+      <c r="A21" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="4"/>
+      <c r="A22" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="4"/>
+      <c r="A23" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="4"/>
+      <c r="A24" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="4"/>
+      <c r="A25" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="4"/>
+      <c r="A26" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="8"/>
-      <c r="B27" s="4"/>
+      <c r="A27" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
+      <c r="A28" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="4"/>
+      <c r="A29" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4"/>
+      <c r="A30" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="4"/>
+      <c r="A31" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="4"/>
+      <c r="A32" s="11">
+        <v>1470586929</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="4"/>
+      <c r="A33" s="11">
+        <v>1470586915</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="3"/>
-      <c r="B34" s="4"/>
+      <c r="A34" s="11">
+        <v>1470586168</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="4"/>
+      <c r="A35" s="11">
+        <v>1470586920</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="3"/>
-      <c r="B36" s="4"/>
+      <c r="A36" s="11">
+        <v>1470586827</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="3"/>

--- a/aplicacao/mudanca.xlsx
+++ b/aplicacao/mudanca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cleitonfonseca\Desktop\automatizacao_de_processo_com_python-main\aplicacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cleitonfonseca\Desktop\automatizacao_de_processo_com_python\aplicacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,111 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Serial</t>
   </si>
   <si>
     <t>Estoque</t>
-  </si>
-  <si>
-    <t>527-601-178</t>
-  </si>
-  <si>
-    <t>BOLT_5C</t>
-  </si>
-  <si>
-    <t>526-622-393</t>
-  </si>
-  <si>
-    <t>541-361-452</t>
-  </si>
-  <si>
-    <t>541-544-749</t>
-  </si>
-  <si>
-    <t>541-557-530</t>
-  </si>
-  <si>
-    <t>527-624-904</t>
-  </si>
-  <si>
-    <t>527-624-804</t>
-  </si>
-  <si>
-    <t>541-374-261</t>
-  </si>
-  <si>
-    <t>541-374-214</t>
-  </si>
-  <si>
-    <t>527-601-231</t>
-  </si>
-  <si>
-    <t>541-544-989</t>
-  </si>
-  <si>
-    <t>541-361-754</t>
-  </si>
-  <si>
-    <t>541-362-228</t>
-  </si>
-  <si>
-    <t>526-622-535</t>
-  </si>
-  <si>
-    <t>541-362-315</t>
-  </si>
-  <si>
-    <t>541-374-240</t>
-  </si>
-  <si>
-    <t>6P149798</t>
-  </si>
-  <si>
-    <t>BOLT_5E</t>
-  </si>
-  <si>
-    <t>6P150747</t>
-  </si>
-  <si>
-    <t>6P764320</t>
-  </si>
-  <si>
-    <t>6P149426</t>
-  </si>
-  <si>
-    <t>6P149180</t>
-  </si>
-  <si>
-    <t>6P150460</t>
-  </si>
-  <si>
-    <t>6P764279</t>
-  </si>
-  <si>
-    <t>6P150437</t>
-  </si>
-  <si>
-    <t>6P149515</t>
-  </si>
-  <si>
-    <t>6P764280</t>
-  </si>
-  <si>
-    <t>6P150805</t>
-  </si>
-  <si>
-    <t>6P764425</t>
-  </si>
-  <si>
-    <t>6P764512</t>
-  </si>
-  <si>
-    <t>6P151065</t>
-  </si>
-  <si>
-    <t>BOLT_7D</t>
   </si>
 </sst>
 </file>
@@ -532,284 +433,144 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="A27" s="10"/>
+      <c r="B27" s="9"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="A28" s="11"/>
+      <c r="B28" s="9"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="A29" s="11"/>
+      <c r="B29" s="9"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="A30" s="11"/>
+      <c r="B30" s="9"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="A31" s="11"/>
+      <c r="B31" s="9"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="11">
-        <v>1470586929</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>34</v>
-      </c>
+      <c r="A32" s="11"/>
+      <c r="B32" s="9"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="11">
-        <v>1470586915</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>34</v>
-      </c>
+      <c r="A33" s="11"/>
+      <c r="B33" s="9"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="11">
-        <v>1470586168</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>34</v>
-      </c>
+      <c r="A34" s="11"/>
+      <c r="B34" s="9"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="11">
-        <v>1470586920</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>34</v>
-      </c>
+      <c r="A35" s="11"/>
+      <c r="B35" s="9"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="11">
-        <v>1470586827</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>34</v>
-      </c>
+      <c r="A36" s="11"/>
+      <c r="B36" s="9"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="3"/>
